--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_9_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_9_8.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9573964389139799</v>
+        <v>0.9691021445037086</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8035793806218152</v>
+        <v>0.8487830836879227</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8324326606006532</v>
+        <v>0.9855550566510717</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8876354439324919</v>
+        <v>0.9091001735799827</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9152163856534932</v>
+        <v>0.9642589514562444</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2848902091535776</v>
+        <v>0.2066141019752434</v>
       </c>
       <c r="H2" t="n">
-        <v>1.313465586215711</v>
+        <v>1.011188215668737</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5050294429836313</v>
+        <v>0.1013933196157191</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2573163131206586</v>
+        <v>0.361538185871387</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3811728780521449</v>
+        <v>0.231465752743553</v>
       </c>
       <c r="L2" t="n">
-        <v>2.228217193275375</v>
+        <v>1.086596366314618</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5337510741474696</v>
+        <v>0.4545482394369639</v>
       </c>
       <c r="N2" t="n">
-        <v>1.204497093212897</v>
+        <v>1.148309706382199</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5564739623909695</v>
+        <v>0.4738992990343672</v>
       </c>
       <c r="P2" t="n">
-        <v>60.51130280794821</v>
+        <v>61.15380493448687</v>
       </c>
       <c r="Q2" t="n">
-        <v>95.85870172912603</v>
+        <v>96.50120385566468</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9573819997058808</v>
+        <v>0.9687816322136977</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8034944407930718</v>
+        <v>0.8487138205063731</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8360061707279349</v>
+        <v>0.9856737426159783</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8917128958821116</v>
+        <v>0.909755152790756</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9174526328838888</v>
+        <v>0.9645243975176843</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2849867642046227</v>
+        <v>0.2087573691343691</v>
       </c>
       <c r="H3" t="n">
-        <v>1.314033579241631</v>
+        <v>1.011651378882687</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4942592783707268</v>
+        <v>0.1005602278075349</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2479788944601657</v>
+        <v>0.3589331204386733</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3711190864154462</v>
+        <v>0.2297466741231041</v>
       </c>
       <c r="L3" t="n">
-        <v>2.212552438249664</v>
+        <v>1.089125130677055</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5338415159994797</v>
+        <v>0.4568997364131097</v>
       </c>
       <c r="N3" t="n">
-        <v>1.204566401411772</v>
+        <v>1.149848165374251</v>
       </c>
       <c r="O3" t="n">
-        <v>0.55656825453986</v>
+        <v>0.4763509041050574</v>
       </c>
       <c r="P3" t="n">
-        <v>60.51062508235842</v>
+        <v>61.13316522926352</v>
       </c>
       <c r="Q3" t="n">
-        <v>95.85802400353623</v>
+        <v>96.48056415044134</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9573497714937292</v>
+        <v>0.9684486742460696</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8033977619976709</v>
+        <v>0.8486338226912313</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8394967516483156</v>
+        <v>0.9857755023820908</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8957600649451837</v>
+        <v>0.9103957135328947</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9196533708157751</v>
+        <v>0.9647762432232886</v>
       </c>
       <c r="G4" t="n">
-        <v>0.285202274407677</v>
+        <v>0.2109838605970287</v>
       </c>
       <c r="H4" t="n">
-        <v>1.314680070791641</v>
+        <v>1.012186324640895</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4837390532228656</v>
+        <v>0.09984594598307747</v>
       </c>
       <c r="J4" t="n">
-        <v>0.238710824008661</v>
+        <v>0.3563854019470762</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3612249386157633</v>
+        <v>0.2281156739650768</v>
       </c>
       <c r="L4" t="n">
-        <v>2.196939342135462</v>
+        <v>1.09169570989222</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5340433263394245</v>
+        <v>0.45932979502426</v>
       </c>
       <c r="N4" t="n">
-        <v>1.2047210968301</v>
+        <v>1.151446363618866</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5567786563637813</v>
+        <v>0.4788844153421991</v>
       </c>
       <c r="P4" t="n">
-        <v>60.50911323138464</v>
+        <v>61.11194727698612</v>
       </c>
       <c r="Q4" t="n">
-        <v>95.85651215256244</v>
+        <v>96.45934619816393</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9572993000741628</v>
+        <v>0.9681030863145319</v>
       </c>
       <c r="C5" t="n">
-        <v>0.803288857647859</v>
+        <v>0.8485428028247909</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8429028340169966</v>
+        <v>0.9858600760780045</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8997742836245312</v>
+        <v>0.9110212960609375</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9218173940620629</v>
+        <v>0.9650141758579355</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2855397770227175</v>
+        <v>0.2132948086865078</v>
       </c>
       <c r="H5" t="n">
-        <v>1.315408314680292</v>
+        <v>1.012794974906891</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4734734973718426</v>
+        <v>0.09925229825641417</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2295182103698087</v>
+        <v>0.3538972566864202</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3514958538708257</v>
+        <v>0.2265747774714172</v>
       </c>
       <c r="L5" t="n">
-        <v>2.181389620064308</v>
+        <v>1.094314382367066</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5343592209578848</v>
+        <v>0.4618385093152235</v>
       </c>
       <c r="N5" t="n">
-        <v>1.204963359644019</v>
+        <v>1.153105185690247</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5571079992701414</v>
+        <v>0.4814999307942834</v>
       </c>
       <c r="P5" t="n">
-        <v>60.50674787103641</v>
+        <v>61.09015998377166</v>
       </c>
       <c r="Q5" t="n">
-        <v>95.85414679221422</v>
+        <v>96.43755890494947</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9572300771417228</v>
+        <v>0.9677445021413368</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8031673212659124</v>
+        <v>0.8484404845309456</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8462220502622262</v>
+        <v>0.9859267340972284</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9037515588454771</v>
+        <v>0.9116315009071136</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9239428920798348</v>
+        <v>0.9652376773594209</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2860026710906862</v>
+        <v>0.2156926627037921</v>
       </c>
       <c r="H6" t="n">
-        <v>1.316221029025992</v>
+        <v>1.013479177808966</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4634697464172754</v>
+        <v>0.09878440595079153</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2204101977372032</v>
+        <v>0.3514702734700047</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3419399720772393</v>
+        <v>0.2251273397103981</v>
       </c>
       <c r="L6" t="n">
-        <v>2.165919271780432</v>
+        <v>1.09697783364556</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5347921756072037</v>
+        <v>0.4644272415608198</v>
       </c>
       <c r="N6" t="n">
-        <v>1.205295629719731</v>
+        <v>1.154826389721583</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5575593856952216</v>
+        <v>0.4841988707309893</v>
       </c>
       <c r="P6" t="n">
-        <v>60.50350825745595</v>
+        <v>61.0678014847485</v>
       </c>
       <c r="Q6" t="n">
-        <v>95.85090717863376</v>
+        <v>96.41520040592631</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9571413791038914</v>
+        <v>0.9673725400010408</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8030325763087018</v>
+        <v>0.8483265631510835</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8494525437302166</v>
+        <v>0.9859751427624607</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9076879640495106</v>
+        <v>0.9122253345474021</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9260282425197284</v>
+        <v>0.9654462618132185</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2865957952780818</v>
+        <v>0.2181799752486791</v>
       </c>
       <c r="H7" t="n">
-        <v>1.317122069175302</v>
+        <v>1.014240970600664</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4537333961085002</v>
+        <v>0.098444611245648</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2113957779815436</v>
+        <v>0.3491084038661265</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3325645870450219</v>
+        <v>0.2237765075558872</v>
       </c>
       <c r="L7" t="n">
-        <v>2.150542272001805</v>
+        <v>1.099694872595005</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5353464254836132</v>
+        <v>0.4670973937506814</v>
       </c>
       <c r="N7" t="n">
-        <v>1.205721380301321</v>
+        <v>1.156611807995004</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5581372311363252</v>
+        <v>0.4869826968275503</v>
       </c>
       <c r="P7" t="n">
-        <v>60.49936486948431</v>
+        <v>61.04486996451406</v>
       </c>
       <c r="Q7" t="n">
-        <v>95.84676379066212</v>
+        <v>96.39226888569188</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9570327741652703</v>
+        <v>0.9669869894587587</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8028841669396745</v>
+        <v>0.848200788235533</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8525927081508093</v>
+        <v>0.9860047336429035</v>
       </c>
       <c r="E8" t="n">
-        <v>0.911579659435715</v>
+        <v>0.9128027842574761</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9280719290533184</v>
+        <v>0.9656396172617204</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2873220370027207</v>
+        <v>0.2207581535002167</v>
       </c>
       <c r="H8" t="n">
-        <v>1.318114483309351</v>
+        <v>1.01508202804009</v>
       </c>
       <c r="I8" t="n">
-        <v>0.444269287566265</v>
+        <v>0.09823690412447923</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2024837442974951</v>
+        <v>0.3468116984835719</v>
       </c>
       <c r="K8" t="n">
-        <v>0.32337651593188</v>
+        <v>0.2225243013040256</v>
       </c>
       <c r="L8" t="n">
-        <v>2.135273590151999</v>
+        <v>1.102454425232716</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5360242876985339</v>
+        <v>0.4698490752360982</v>
       </c>
       <c r="N8" t="n">
-        <v>1.206242684006702</v>
+        <v>1.158462450597958</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5588439513491034</v>
+        <v>0.4898515230905673</v>
       </c>
       <c r="P8" t="n">
-        <v>60.49430322427013</v>
+        <v>61.02137500946369</v>
       </c>
       <c r="Q8" t="n">
-        <v>95.84170214544794</v>
+        <v>96.3687739306415</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9569036050227459</v>
+        <v>0.9665874168784172</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8027214829022229</v>
+        <v>0.8480628389545904</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8556409517323575</v>
+        <v>0.9860149232175838</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9154225943807139</v>
+        <v>0.9133622772272195</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9300723865125448</v>
+        <v>0.965816944509217</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2881857916535508</v>
+        <v>0.2234300971848227</v>
       </c>
       <c r="H9" t="n">
-        <v>1.319202352216881</v>
+        <v>1.016004495516952</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4350822182746837</v>
+        <v>0.09816538049317459</v>
       </c>
       <c r="J9" t="n">
-        <v>0.193683372665932</v>
+        <v>0.3445864128999209</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3143827954703079</v>
+        <v>0.2213758966965477</v>
       </c>
       <c r="L9" t="n">
-        <v>2.120131215672618</v>
+        <v>1.1052673977829</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5368293878445468</v>
+        <v>0.4726839294759477</v>
       </c>
       <c r="N9" t="n">
-        <v>1.20686269589082</v>
+        <v>1.160380398983597</v>
       </c>
       <c r="O9" t="n">
-        <v>0.559683326275119</v>
+        <v>0.4928070629443644</v>
       </c>
       <c r="P9" t="n">
-        <v>60.48829979386395</v>
+        <v>60.99731335624637</v>
       </c>
       <c r="Q9" t="n">
-        <v>95.83569871504177</v>
+        <v>96.34471227742418</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9567532646390354</v>
+        <v>0.9661735288200819</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8025440024975634</v>
+        <v>0.8479124110293714</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8585949546014648</v>
+        <v>0.9860052291561934</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9192122106159116</v>
+        <v>0.9139040408978045</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9320276763977549</v>
+        <v>0.9659780520069779</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2891911184916762</v>
+        <v>0.2261977685366901</v>
       </c>
       <c r="H10" t="n">
-        <v>1.320389164500061</v>
+        <v>1.017010407745548</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4261791800758026</v>
+        <v>0.09823342597048726</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1850051015819666</v>
+        <v>0.3424316425076289</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3055921408288846</v>
+        <v>0.2203325342390581</v>
       </c>
       <c r="L10" t="n">
-        <v>2.105132405544387</v>
+        <v>1.108137877165084</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5377649286553338</v>
+        <v>0.4756025320965923</v>
       </c>
       <c r="N10" t="n">
-        <v>1.20758432973263</v>
+        <v>1.162367061663607</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5606586949950577</v>
+        <v>0.4958499165209102</v>
       </c>
       <c r="P10" t="n">
-        <v>60.4813349995576</v>
+        <v>60.97269116070029</v>
       </c>
       <c r="Q10" t="n">
-        <v>95.82873392073542</v>
+        <v>96.32009008187811</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9565811911797417</v>
+        <v>0.9657449817296813</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8023510809241146</v>
+        <v>0.847749207310882</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8614536790800678</v>
+        <v>0.9859750289434034</v>
       </c>
       <c r="E11" t="n">
-        <v>0.922943925527442</v>
+        <v>0.91442667192946</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9339362837843016</v>
+        <v>0.9661221714668126</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2903417745062985</v>
+        <v>0.2290634649034772</v>
       </c>
       <c r="H11" t="n">
-        <v>1.321679231950035</v>
+        <v>1.018101751762571</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4175633004166297</v>
+        <v>0.09844541017519545</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1764594252917005</v>
+        <v>0.3403529688455721</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2970113628541651</v>
+        <v>0.2193991895103838</v>
       </c>
       <c r="L11" t="n">
-        <v>2.090297936220584</v>
+        <v>1.111059699178453</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5388337169352884</v>
+        <v>0.4786057510137934</v>
       </c>
       <c r="N11" t="n">
-        <v>1.20841028233724</v>
+        <v>1.16442408769753</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5617729838047867</v>
+        <v>0.4989809886849368</v>
       </c>
       <c r="P11" t="n">
-        <v>60.47339303429176</v>
+        <v>60.94751234901482</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.82079195546957</v>
+        <v>96.29491127019263</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9563867479673003</v>
+        <v>0.9653013544386064</v>
       </c>
       <c r="C12" t="n">
-        <v>0.802142039401047</v>
+        <v>0.8475729201740327</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8642147081579592</v>
+        <v>0.9859238167898731</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9266129236809586</v>
+        <v>0.9149295129444347</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9357961721180911</v>
+        <v>0.9662488269227857</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2916420171632229</v>
+        <v>0.2320300026416102</v>
       </c>
       <c r="H12" t="n">
-        <v>1.323077093577335</v>
+        <v>1.019280584658409</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4092418638988252</v>
+        <v>0.09880488339192502</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1680573712032012</v>
+        <v>0.3383530065189594</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2886496175510132</v>
+        <v>0.2185789449554422</v>
       </c>
       <c r="L12" t="n">
-        <v>2.075655784180777</v>
+        <v>1.114037000720377</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5400389033793981</v>
+        <v>0.4816949269419497</v>
       </c>
       <c r="N12" t="n">
-        <v>1.209343609756959</v>
+        <v>1.166553498694689</v>
       </c>
       <c r="O12" t="n">
-        <v>0.563029477530902</v>
+        <v>0.5022016772278304</v>
       </c>
       <c r="P12" t="n">
-        <v>60.46445639489451</v>
+        <v>60.92177718789217</v>
       </c>
       <c r="Q12" t="n">
-        <v>95.81185531607233</v>
+        <v>96.26917610906997</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9561693266562405</v>
+        <v>0.9648423383132261</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8019162211877102</v>
+        <v>0.847383235144314</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8668777623567641</v>
+        <v>0.9858510274340369</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9302136802902714</v>
+        <v>0.9154122395116457</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9376058406590639</v>
+        <v>0.9663576124180581</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2930959144714128</v>
+        <v>0.2350994455856042</v>
       </c>
       <c r="H13" t="n">
-        <v>1.324587141009716</v>
+        <v>1.020549009325558</v>
       </c>
       <c r="I13" t="n">
-        <v>0.401215712839325</v>
+        <v>0.09931581335839401</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1598115911496001</v>
+        <v>0.3364330458957677</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2805136519944625</v>
+        <v>0.2178744296270809</v>
       </c>
       <c r="L13" t="n">
-        <v>2.061218004860249</v>
+        <v>1.117073609831265</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5413833341278735</v>
+        <v>0.4848705451825304</v>
       </c>
       <c r="N13" t="n">
-        <v>1.210387232050045</v>
+        <v>1.168756776096515</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5644311434796954</v>
+        <v>0.5055124881113485</v>
       </c>
       <c r="P13" t="n">
-        <v>60.45451074077734</v>
+        <v>60.89549336329119</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.80190966195515</v>
+        <v>96.24289228446901</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9559282057336216</v>
+        <v>0.9643675420073425</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8016729174770147</v>
+        <v>0.8471798424171088</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8694406076836784</v>
+        <v>0.9857559032783172</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9337414868283317</v>
+        <v>0.9158738246061739</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9393633414255378</v>
+        <v>0.9664478020153121</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2947082911912253</v>
+        <v>0.2382744106692832</v>
       </c>
       <c r="H14" t="n">
-        <v>1.326214114043448</v>
+        <v>1.021909097428916</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3934915802455616</v>
+        <v>0.09998351787554431</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1517328677198448</v>
+        <v>0.3345971717882651</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2726122239827032</v>
+        <v>0.2172903448319047</v>
       </c>
       <c r="L14" t="n">
-        <v>2.047361796755186</v>
+        <v>1.120169951640659</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5428704184160574</v>
+        <v>0.4881335992013695</v>
       </c>
       <c r="N14" t="n">
-        <v>1.211544612478616</v>
+        <v>1.171035798364756</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5659815360247162</v>
+        <v>0.5089144570952226</v>
       </c>
       <c r="P14" t="n">
-        <v>60.44353851058018</v>
+        <v>60.86866456696632</v>
       </c>
       <c r="Q14" t="n">
-        <v>95.79093743175798</v>
+        <v>96.21606348814413</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9556629382624665</v>
+        <v>0.9638766173671807</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8014113580914832</v>
+        <v>0.8469624087610731</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8719023835548977</v>
+        <v>0.9856381086189262</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9371912418696233</v>
+        <v>0.9163135651902778</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9410670867206848</v>
+        <v>0.9665189979023073</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2964821359922836</v>
+        <v>0.2415572259985459</v>
       </c>
       <c r="H15" t="n">
-        <v>1.327963162858867</v>
+        <v>1.023363077288017</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3860720598220173</v>
+        <v>0.1008103533473179</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1438328832455479</v>
+        <v>0.3328481804062977</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2649524715337826</v>
+        <v>0.2168292668768078</v>
       </c>
       <c r="L15" t="n">
-        <v>2.034105354079111</v>
+        <v>1.123326452444685</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5445017318542555</v>
+        <v>0.4914847159358528</v>
       </c>
       <c r="N15" t="n">
-        <v>1.212817896340161</v>
+        <v>1.173392236637533</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5676822978532627</v>
+        <v>0.5124082378068608</v>
       </c>
       <c r="P15" t="n">
-        <v>60.43153662392776</v>
+        <v>60.84129774660749</v>
       </c>
       <c r="Q15" t="n">
-        <v>95.77893554510557</v>
+        <v>96.18869666778531</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9553727278952862</v>
+        <v>0.9633691128572729</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8011308095885447</v>
+        <v>0.8467306324266769</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8742622668967837</v>
+        <v>0.9854967822026599</v>
       </c>
       <c r="E16" t="n">
-        <v>0.940557384671634</v>
+        <v>0.9167303969576105</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9427153844409182</v>
+        <v>0.966570406519401</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2984227740539144</v>
+        <v>0.2449509109931421</v>
       </c>
       <c r="H16" t="n">
-        <v>1.329839191989824</v>
+        <v>1.024912966703357</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3789596322216797</v>
+        <v>0.1018023651640825</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1361243719002921</v>
+        <v>0.3311903048425018</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2575420020609859</v>
+        <v>0.2164963350032921</v>
       </c>
       <c r="L16" t="n">
-        <v>2.021142801517991</v>
+        <v>1.126549958615104</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5462808563860849</v>
+        <v>0.4949251569612744</v>
       </c>
       <c r="N16" t="n">
-        <v>1.214210906102626</v>
+        <v>1.17582825828509</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5695371633997076</v>
+        <v>0.5159951455294294</v>
       </c>
       <c r="P16" t="n">
-        <v>60.41848818601757</v>
+        <v>60.81339490361223</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.76588710719538</v>
+        <v>96.16079382479005</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9550570412811161</v>
+        <v>0.9628446816213901</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8008305234683887</v>
+        <v>0.8464841317900983</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8765197743570737</v>
+        <v>0.9853313048118011</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9438344424559192</v>
+        <v>0.9171240145284922</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9443066787557131</v>
+        <v>0.9666015985194104</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3005337718964731</v>
+        <v>0.2484577850822741</v>
       </c>
       <c r="H17" t="n">
-        <v>1.331847206657998</v>
+        <v>1.026561317595188</v>
       </c>
       <c r="I17" t="n">
-        <v>0.372155754214853</v>
+        <v>0.1029638997977076</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1286198664187859</v>
+        <v>0.3296247596912261</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2503878103168194</v>
+        <v>0.2162943297444669</v>
       </c>
       <c r="L17" t="n">
-        <v>2.008502487597744</v>
+        <v>1.129835708391717</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5482096058046348</v>
+        <v>0.4984553992909236</v>
       </c>
       <c r="N17" t="n">
-        <v>1.215726201850643</v>
+        <v>1.178345528217327</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5715480236740669</v>
+        <v>0.5196756775836608</v>
       </c>
       <c r="P17" t="n">
-        <v>60.40439029128579</v>
+        <v>60.78496465364218</v>
       </c>
       <c r="Q17" t="n">
-        <v>95.75178921246359</v>
+        <v>96.13236357481999</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9547153245582899</v>
+        <v>0.9623028489353848</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8005096987108654</v>
+        <v>0.8462226454304167</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8786741492758863</v>
+        <v>0.9851411190437143</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9470171440459583</v>
+        <v>0.9174934369130932</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9458393735697049</v>
+        <v>0.9666119705930121</v>
       </c>
       <c r="G18" t="n">
-        <v>0.302818833195473</v>
+        <v>0.2520810227485022</v>
       </c>
       <c r="H18" t="n">
-        <v>1.333992563288818</v>
+        <v>1.028309878086413</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3656627062908015</v>
+        <v>0.1042988698217623</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1213314378646779</v>
+        <v>0.328155446668209</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2434970720777397</v>
+        <v>0.2162271582449856</v>
       </c>
       <c r="L18" t="n">
-        <v>1.996219227958803</v>
+        <v>1.133190807663609</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5502897720251332</v>
+        <v>0.5020767100239785</v>
       </c>
       <c r="N18" t="n">
-        <v>1.217366442120209</v>
+        <v>1.180946325110153</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5737167468771095</v>
+        <v>0.5234511550117685</v>
       </c>
       <c r="P18" t="n">
-        <v>60.38924112507669</v>
+        <v>60.75600944860712</v>
       </c>
       <c r="Q18" t="n">
-        <v>95.73664004625451</v>
+        <v>96.10340836978493</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9543469376497049</v>
+        <v>0.9617432521053972</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8001675777060101</v>
+        <v>0.8459458403431432</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8807252022169576</v>
+        <v>0.9849254258715605</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9501007429039072</v>
+        <v>0.9178373035707489</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9473121965294801</v>
+        <v>0.9666006719373949</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3052822381494465</v>
+        <v>0.2558230493273352</v>
       </c>
       <c r="H19" t="n">
-        <v>1.336280328023608</v>
+        <v>1.030160874979581</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3594810593894886</v>
+        <v>0.1058128838413976</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1142699558721375</v>
+        <v>0.3267877770863545</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2368755076308131</v>
+        <v>0.216300330463876</v>
       </c>
       <c r="L19" t="n">
-        <v>1.984330015745112</v>
+        <v>1.13661316660674</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5525235181867343</v>
+        <v>0.5057895306620485</v>
       </c>
       <c r="N19" t="n">
-        <v>1.219134699281416</v>
+        <v>1.183632389894093</v>
       </c>
       <c r="O19" t="n">
-        <v>0.576045588237302</v>
+        <v>0.5273220381109994</v>
       </c>
       <c r="P19" t="n">
-        <v>60.37303711856941</v>
+        <v>60.72653857413182</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.72043603974723</v>
+        <v>96.07393749530962</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9539514565179621</v>
+        <v>0.9611654835049133</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7998034590696274</v>
+        <v>0.8456533207502808</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8826732882731348</v>
+        <v>0.9846836213310685</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9530795454528095</v>
+        <v>0.9181556218145126</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9487238166071137</v>
+        <v>0.9665673774911969</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3079268222984337</v>
+        <v>0.2596865906191516</v>
       </c>
       <c r="H20" t="n">
-        <v>1.338715191021711</v>
+        <v>1.032116954843981</v>
       </c>
       <c r="I20" t="n">
-        <v>0.353609743300315</v>
+        <v>0.1075101812600449</v>
       </c>
       <c r="J20" t="n">
-        <v>0.107448458807374</v>
+        <v>0.3255217218592703</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2305291010538446</v>
+        <v>0.2165159515596576</v>
       </c>
       <c r="L20" t="n">
-        <v>1.972863035708406</v>
+        <v>1.140107176108242</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5549115445712349</v>
+        <v>0.5095945355075461</v>
       </c>
       <c r="N20" t="n">
-        <v>1.221033008713782</v>
+        <v>1.186405679176416</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5785352778488869</v>
+        <v>0.5312890298902158</v>
       </c>
       <c r="P20" t="n">
-        <v>60.35578622835535</v>
+        <v>60.69655959153215</v>
       </c>
       <c r="Q20" t="n">
-        <v>95.70318514953316</v>
+        <v>96.04395851270996</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.953528222565596</v>
+        <v>0.9605690068645162</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7994166502098045</v>
+        <v>0.8453447445237464</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8845181825839306</v>
+        <v>0.9844148012177707</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9559498626107401</v>
+        <v>0.9184469152324457</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9500732188902327</v>
+        <v>0.9665111438716396</v>
       </c>
       <c r="G21" t="n">
-        <v>0.310756989686719</v>
+        <v>0.2636752326600086</v>
       </c>
       <c r="H21" t="n">
-        <v>1.341301783648438</v>
+        <v>1.034180405491679</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3480494357279409</v>
+        <v>0.1093971089556632</v>
       </c>
       <c r="J21" t="n">
-        <v>0.100875394716577</v>
+        <v>0.3243631531576189</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2244624152222589</v>
+        <v>0.2168801310566411</v>
       </c>
       <c r="L21" t="n">
-        <v>1.961863134202422</v>
+        <v>1.14367799793026</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5574558185961638</v>
+        <v>0.5134931671015776</v>
       </c>
       <c r="N21" t="n">
-        <v>1.223064531685139</v>
+        <v>1.189268767050322</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5811878668864302</v>
+        <v>0.5353536343024852</v>
       </c>
       <c r="P21" t="n">
-        <v>60.33748811177243</v>
+        <v>60.66607422489136</v>
       </c>
       <c r="Q21" t="n">
-        <v>95.68488703295024</v>
+        <v>96.01347314606917</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9530768581252739</v>
+        <v>0.9599534559838527</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7990065179195944</v>
+        <v>0.8450198153977861</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8862602424442965</v>
+        <v>0.9841183753992202</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9587067542012898</v>
+        <v>0.918710330530476</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9513592649664406</v>
+        <v>0.9664313892440204</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3137752657774948</v>
+        <v>0.2677914242333564</v>
       </c>
       <c r="H22" t="n">
-        <v>1.344044340161558</v>
+        <v>1.036353208053137</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3427990598248655</v>
+        <v>0.1114778092420279</v>
       </c>
       <c r="J22" t="n">
-        <v>0.09456207666878097</v>
+        <v>0.3233154648095616</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2186805682468232</v>
+        <v>0.2173966370257947</v>
       </c>
       <c r="L22" t="n">
-        <v>1.951367228599094</v>
+        <v>1.147325192713225</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5601564654429106</v>
+        <v>0.5174856753895284</v>
       </c>
       <c r="N22" t="n">
-        <v>1.225231080998685</v>
+        <v>1.192223411277507</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5840034858605528</v>
+        <v>0.5395161119338856</v>
       </c>
       <c r="P22" t="n">
-        <v>60.31815652680779</v>
+        <v>60.63509373852973</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.6655554479856</v>
+        <v>95.98249265970753</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9525967579655873</v>
+        <v>0.9593183748253213</v>
       </c>
       <c r="C23" t="n">
-        <v>0.798572521925436</v>
+        <v>0.8446781378087079</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8879000552674883</v>
+        <v>0.9837935676135913</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9613465238020749</v>
+        <v>0.9189456172925101</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9525812103175431</v>
+        <v>0.9663276160319098</v>
       </c>
       <c r="G23" t="n">
-        <v>0.316985697755977</v>
+        <v>0.2720382148647362</v>
       </c>
       <c r="H23" t="n">
-        <v>1.346946473372863</v>
+        <v>1.038638007664584</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3378568451924526</v>
+        <v>0.113757730929945</v>
       </c>
       <c r="J23" t="n">
-        <v>0.08851696951992258</v>
+        <v>0.3223796528013816</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2131869073561876</v>
+        <v>0.2180686918656633</v>
       </c>
       <c r="L23" t="n">
-        <v>1.941412799028195</v>
+        <v>1.151049603613203</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5630148290728912</v>
+        <v>0.5215728279586047</v>
       </c>
       <c r="N23" t="n">
-        <v>1.227535561765181</v>
+        <v>1.195271800838458</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5869835359478901</v>
+        <v>0.5437772630493996</v>
       </c>
       <c r="P23" t="n">
-        <v>60.29779724722343</v>
+        <v>60.60362545345703</v>
       </c>
       <c r="Q23" t="n">
-        <v>95.64519616840124</v>
+        <v>95.95102437463486</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9520876557149444</v>
+        <v>0.9586632712150649</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7981142161063292</v>
+        <v>0.8443193816808778</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8894386706601394</v>
+        <v>0.9834394008033547</v>
       </c>
       <c r="E24" t="n">
-        <v>0.96386578139287</v>
+        <v>0.9191510133683622</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9537385433816467</v>
+        <v>0.9661987536286829</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3203900668502272</v>
+        <v>0.2764188957229957</v>
       </c>
       <c r="H24" t="n">
-        <v>1.350011166495535</v>
+        <v>1.041037011543304</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3332196284323014</v>
+        <v>0.1162437322745096</v>
       </c>
       <c r="J24" t="n">
-        <v>0.08274783646096046</v>
+        <v>0.3215627257777199</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2079837324466309</v>
+        <v>0.2189032290261148</v>
       </c>
       <c r="L24" t="n">
-        <v>1.932040715231774</v>
+        <v>1.15485691121898</v>
       </c>
       <c r="M24" t="n">
-        <v>0.5660300935906387</v>
+        <v>0.5257555474961683</v>
       </c>
       <c r="N24" t="n">
-        <v>1.229979252568267</v>
+        <v>1.198416298167688</v>
       </c>
       <c r="O24" t="n">
-        <v>0.5901271665186161</v>
+        <v>0.5481380496171003</v>
       </c>
       <c r="P24" t="n">
-        <v>60.27643213321726</v>
+        <v>60.57167565147729</v>
       </c>
       <c r="Q24" t="n">
-        <v>95.62383105439507</v>
+        <v>95.91907457265509</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9515488859406459</v>
+        <v>0.9579876145695609</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7976313041373921</v>
+        <v>0.843943189127879</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8908757474133703</v>
+        <v>0.9830553150722963</v>
       </c>
       <c r="E25" t="n">
-        <v>0.966261247161452</v>
+        <v>0.9193258814708383</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9548303144814473</v>
+        <v>0.966044302915477</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3239928228117674</v>
+        <v>0.2809370148225935</v>
       </c>
       <c r="H25" t="n">
-        <v>1.353240401055422</v>
+        <v>1.043552612877414</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3288884379102671</v>
+        <v>0.1189397433524578</v>
       </c>
       <c r="J25" t="n">
-        <v>0.07726218830507824</v>
+        <v>0.3208672184371023</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2030753131076727</v>
+        <v>0.2199034808947801</v>
       </c>
       <c r="L25" t="n">
-        <v>1.923296603551593</v>
+        <v>1.158749107935759</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5692036742781685</v>
+        <v>0.530034918493672</v>
       </c>
       <c r="N25" t="n">
-        <v>1.2325653474849</v>
+        <v>1.201659450066108</v>
       </c>
       <c r="O25" t="n">
-        <v>0.5934358531062318</v>
+        <v>0.5525996022974871</v>
       </c>
       <c r="P25" t="n">
-        <v>60.25406783050139</v>
+        <v>60.53924956262359</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.6014667516792</v>
+        <v>95.88664848380139</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9509802580233687</v>
+        <v>0.9572909646287805</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7971236335133963</v>
+        <v>0.8435492021235625</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8922124902786077</v>
+        <v>0.9826401927838057</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9685306668273385</v>
+        <v>0.9194696170846897</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9558563533098291</v>
+        <v>0.9658634725799612</v>
       </c>
       <c r="G26" t="n">
-        <v>0.327795240312891</v>
+        <v>0.2855955161843699</v>
       </c>
       <c r="H26" t="n">
-        <v>1.35663519685569</v>
+        <v>1.046187205789421</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3248596426386877</v>
+        <v>0.1218536091849367</v>
       </c>
       <c r="J26" t="n">
-        <v>0.07206518738426675</v>
+        <v>0.3202955351333653</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1984624150114773</v>
+        <v>0.221074572159151</v>
       </c>
       <c r="L26" t="n">
-        <v>1.915217902713082</v>
+        <v>1.162726784006883</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5725340516623365</v>
+        <v>0.534411373554465</v>
       </c>
       <c r="N26" t="n">
-        <v>1.23529476148783</v>
+        <v>1.205003369781854</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5969080115504753</v>
+        <v>0.5571623721107288</v>
       </c>
       <c r="P26" t="n">
-        <v>60.23073226574546</v>
+        <v>60.50635749654901</v>
       </c>
       <c r="Q26" t="n">
-        <v>95.57813118692327</v>
+        <v>95.85375641772683</v>
       </c>
     </row>
   </sheetData>
